--- a/Data/EC/NIT-9007044364.xlsx
+++ b/Data/EC/NIT-9007044364.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{088BD227-BBC8-4582-815C-01C8CDECA96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1E5AFCC-CA0E-4ED6-BCBC-80F263E28A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{89EA318D-1D98-4477-B3C0-05FA4727DDDA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{882E75B0-6613-4A42-8ACC-B9E473A6CB98}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,190 +65,190 @@
     <t>CC</t>
   </si>
   <si>
+    <t>2760494</t>
+  </si>
+  <si>
+    <t>YOBANIS RAFAEL PACHECO BARRERA</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
     <t>1047372913</t>
   </si>
   <si>
     <t>MARIFLOR REYES JULIO</t>
   </si>
   <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
     <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>2760494</t>
-  </si>
-  <si>
-    <t>YOBANIS RAFAEL PACHECO BARRERA</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -347,7 +347,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -360,9 +362,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -562,23 +562,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -606,10 +606,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -662,7 +662,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C334D8AE-DC2F-195C-F557-5EA9ABA6AB2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDF62C8E-FF5A-398E-6766-4D7B7A14EC7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1013,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDC920C-00FA-4C50-AE90-EF34D877C4C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{214DC7D7-C1A6-495C-9106-8ED2B2813AEB}">
   <dimension ref="B2:J114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1191,7 +1191,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27083</v>
+        <v>25774</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1214,7 +1214,7 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1237,7 +1237,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G18" s="18">
         <v>781242</v>
@@ -1260,7 +1260,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1283,7 +1283,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1306,7 +1306,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1329,7 +1329,7 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1352,7 +1352,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1375,7 +1375,7 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1398,7 +1398,7 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1421,7 +1421,7 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1444,7 +1444,7 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1467,7 +1467,7 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1490,7 +1490,7 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1513,7 +1513,7 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1536,7 +1536,7 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1559,7 +1559,7 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1582,7 +1582,7 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1605,7 +1605,7 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1628,7 +1628,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1651,7 +1651,7 @@
         <v>31</v>
       </c>
       <c r="F36" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1674,7 +1674,7 @@
         <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1697,7 +1697,7 @@
         <v>33</v>
       </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1711,13 +1711,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F39" s="18">
         <v>31249</v>
@@ -1740,10 +1740,10 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1757,16 +1757,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1789,7 +1789,7 @@
         <v>37</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1803,16 +1803,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E43" s="16" t="s">
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1832,10 +1832,10 @@
         <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>25774</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1849,13 +1849,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" s="18">
         <v>31249</v>
@@ -1878,7 +1878,7 @@
         <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F46" s="18">
         <v>31249</v>
@@ -1895,13 +1895,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F47" s="18">
         <v>31249</v>
@@ -1924,10 +1924,10 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F48" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1941,16 +1941,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F49" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1970,7 +1970,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F50" s="18">
         <v>31249</v>
@@ -1987,16 +1987,16 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F51" s="18">
-        <v>27083</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
         <v>781242</v>
@@ -2010,13 +2010,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F52" s="18">
         <v>31249</v>
@@ -2033,13 +2033,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F53" s="18">
         <v>31249</v>
@@ -2056,13 +2056,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F54" s="18">
         <v>31249</v>
@@ -2079,13 +2079,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="F55" s="18">
         <v>31249</v>
@@ -2102,13 +2102,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F56" s="18">
         <v>31249</v>
@@ -2125,13 +2125,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F57" s="18">
         <v>31249</v>
@@ -2148,13 +2148,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F58" s="18">
         <v>31249</v>
@@ -2171,13 +2171,13 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F59" s="18">
         <v>31249</v>
@@ -2194,13 +2194,13 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>46</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>20</v>
       </c>
       <c r="F60" s="18">
         <v>31249</v>
@@ -2217,13 +2217,13 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D61" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="F61" s="18">
         <v>31249</v>
@@ -2240,13 +2240,13 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="16" t="s">
         <v>47</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>22</v>
       </c>
       <c r="F62" s="18">
         <v>31249</v>
@@ -2263,13 +2263,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="F63" s="18">
         <v>31249</v>
@@ -2286,13 +2286,13 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F64" s="18">
         <v>31249</v>
@@ -2309,13 +2309,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F65" s="18">
         <v>31249</v>
@@ -2332,13 +2332,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F66" s="18">
         <v>31249</v>
@@ -2355,13 +2355,13 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="F67" s="18">
         <v>31249</v>
@@ -2378,13 +2378,13 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F68" s="18">
         <v>31249</v>
@@ -2401,13 +2401,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F69" s="18">
         <v>31249</v>
@@ -2424,13 +2424,13 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F70" s="18">
         <v>31249</v>
@@ -2447,13 +2447,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="F71" s="18">
         <v>31249</v>
@@ -2470,13 +2470,13 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F72" s="18">
         <v>31249</v>
@@ -2493,13 +2493,13 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F73" s="18">
         <v>31249</v>
@@ -2516,13 +2516,13 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="F74" s="18">
         <v>31249</v>
@@ -2539,13 +2539,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F75" s="18">
         <v>31249</v>
@@ -2562,13 +2562,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F76" s="18">
         <v>31249</v>
@@ -2585,13 +2585,13 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F77" s="18">
         <v>31249</v>
@@ -2608,13 +2608,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F78" s="18">
         <v>31249</v>
@@ -2631,13 +2631,13 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="F79" s="18">
         <v>31249</v>
@@ -2654,13 +2654,13 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="F80" s="18">
         <v>31249</v>
@@ -2677,13 +2677,13 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F81" s="18">
         <v>31249</v>
@@ -2700,13 +2700,13 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F82" s="18">
         <v>31249</v>
@@ -2723,16 +2723,16 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F83" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G83" s="18">
         <v>781242</v>
@@ -2746,16 +2746,16 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F84" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G84" s="18">
         <v>781242</v>
@@ -2769,16 +2769,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F85" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G85" s="18">
         <v>781242</v>
@@ -2792,16 +2792,16 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F86" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G86" s="18">
         <v>781242</v>
@@ -2815,16 +2815,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F87" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G87" s="18">
         <v>781242</v>
@@ -2838,16 +2838,16 @@
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F88" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G88" s="18">
         <v>781242</v>
@@ -2861,16 +2861,16 @@
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F89" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G89" s="18">
         <v>781242</v>
@@ -2884,16 +2884,16 @@
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F90" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G90" s="18">
         <v>781242</v>
@@ -2907,16 +2907,16 @@
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F91" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G91" s="18">
         <v>781242</v>
@@ -2930,16 +2930,16 @@
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="F92" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G92" s="18">
         <v>781242</v>
@@ -2953,16 +2953,16 @@
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F93" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G93" s="18">
         <v>781242</v>
@@ -2976,16 +2976,16 @@
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F94" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G94" s="18">
         <v>781242</v>
@@ -2999,16 +2999,16 @@
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F95" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G95" s="18">
         <v>781242</v>
@@ -3022,16 +3022,16 @@
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F96" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G96" s="18">
         <v>781242</v>
@@ -3045,16 +3045,16 @@
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F97" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G97" s="18">
         <v>781242</v>
@@ -3068,16 +3068,16 @@
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F98" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G98" s="18">
         <v>781242</v>
@@ -3091,16 +3091,16 @@
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F99" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G99" s="18">
         <v>781242</v>
@@ -3114,16 +3114,16 @@
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F100" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G100" s="18">
         <v>781242</v>
@@ -3137,16 +3137,16 @@
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F101" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G101" s="18">
         <v>781242</v>
@@ -3160,16 +3160,16 @@
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F102" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G102" s="18">
         <v>781242</v>
@@ -3183,16 +3183,16 @@
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F103" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G103" s="18">
         <v>781242</v>
@@ -3206,16 +3206,16 @@
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F104" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G104" s="18">
         <v>781242</v>
@@ -3229,16 +3229,16 @@
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F105" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G105" s="18">
         <v>781242</v>
@@ -3252,16 +3252,16 @@
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F106" s="18">
-        <v>25774</v>
+        <v>31249</v>
       </c>
       <c r="G106" s="18">
         <v>781242</v>
@@ -3275,16 +3275,16 @@
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F107" s="18">
-        <v>25774</v>
+        <v>27083</v>
       </c>
       <c r="G107" s="18">
         <v>781242</v>
@@ -3298,16 +3298,16 @@
         <v>8</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="E108" s="22" t="s">
         <v>70</v>
       </c>
       <c r="F108" s="24">
-        <v>25774</v>
+        <v>27083</v>
       </c>
       <c r="G108" s="24">
         <v>781242</v>
